--- a/_zajecia9/output/statystyki_opisowe.xlsx
+++ b/_zajecia9/output/statystyki_opisowe.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,11 @@
           <t>nonwhite</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -403,10 +408,13 @@
         <v>23.903</v>
       </c>
       <c r="E2">
-        <v>0.222</v>
+        <v>0.664</v>
       </c>
       <c r="F2">
         <v>0.187</v>
+      </c>
+      <c r="G2">
+        <v>0.022</v>
       </c>
     </row>
     <row r="3">
@@ -423,10 +431,13 @@
         <v>20.711</v>
       </c>
       <c r="E3">
-        <v>0.415</v>
+        <v>0.472</v>
       </c>
       <c r="F3">
         <v>0.39</v>
+      </c>
+      <c r="G3">
+        <v>0.145</v>
       </c>
     </row>
     <row r="4">
@@ -448,6 +459,9 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -468,6 +482,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -483,9 +500,12 @@
         <v>19.231</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -503,9 +523,12 @@
         <v>28.846</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -528,6 +551,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -546,6 +572,9 @@
         <v>50742</v>
       </c>
       <c r="F9">
+        <v>50742</v>
+      </c>
+      <c r="G9">
         <v>50742</v>
       </c>
     </row>
